--- a/data/financial_statements/sofp/WAB.xlsx
+++ b/data/financial_statements/sofp/WAB.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,129 +601,129 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>514000000</v>
@@ -627,7 +738,7 @@
         <v>473000000</v>
       </c>
       <c r="F2">
-        <v>456400000</v>
+        <v>456000000</v>
       </c>
       <c r="G2">
         <v>453500000</v>
@@ -733,8 +844,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>1462000000</v>
@@ -855,8 +966,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>2023000000</v>
@@ -871,7 +982,7 @@
         <v>1689000000</v>
       </c>
       <c r="F4">
-        <v>1689600000</v>
+        <v>1690000000</v>
       </c>
       <c r="G4">
         <v>1661200000</v>
@@ -977,8 +1088,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>200000000</v>
@@ -993,7 +1104,7 @@
         <v>193000000</v>
       </c>
       <c r="F5">
-        <v>247100000</v>
+        <v>247000000</v>
       </c>
       <c r="G5">
         <v>240900000</v>
@@ -1099,8 +1210,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>4199000000</v>
@@ -1115,7 +1226,7 @@
         <v>3832000000</v>
       </c>
       <c r="F6">
-        <v>3760100000</v>
+        <v>3760000000</v>
       </c>
       <c r="G6">
         <v>3808200000</v>
@@ -1221,8 +1332,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>1402000000</v>
@@ -1343,8 +1454,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E8">
         <v>96000000</v>
@@ -1354,8 +1465,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>11771000000</v>
@@ -1370,7 +1481,7 @@
         <v>12292000000</v>
       </c>
       <c r="F9">
-        <v>12384500000</v>
+        <v>12385000000</v>
       </c>
       <c r="G9">
         <v>12529200000</v>
@@ -1476,23 +1587,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>890000000</v>
+        <v>692000000</v>
       </c>
       <c r="C10">
-        <v>869000000</v>
+        <v>679000000</v>
       </c>
       <c r="D10">
-        <v>860000000</v>
+        <v>676000000</v>
       </c>
       <c r="E10">
-        <v>833000000</v>
+        <v>584000000</v>
       </c>
       <c r="F10">
-        <v>698300000</v>
+        <v>549000000</v>
       </c>
       <c r="G10">
         <v>630700000</v>
@@ -1598,8 +1709,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>14063000000</v>
@@ -1720,8 +1831,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>18262000000</v>
@@ -1736,7 +1847,7 @@
         <v>18454000000</v>
       </c>
       <c r="F12">
-        <v>18351900000</v>
+        <v>18352000000</v>
       </c>
       <c r="G12">
         <v>18512400000</v>
@@ -1842,8 +1953,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>1206000000</v>
@@ -1858,7 +1969,7 @@
         <v>1012000000</v>
       </c>
       <c r="F13">
-        <v>947300000</v>
+        <v>947000000</v>
       </c>
       <c r="G13">
         <v>994700000</v>
@@ -1964,8 +2075,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>486000000</v>
@@ -2086,23 +2197,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>251000000</v>
+        <v>265000000</v>
       </c>
       <c r="C15">
-        <v>226000000</v>
+        <v>256000000</v>
       </c>
       <c r="D15">
-        <v>14000000</v>
+        <v>57000000</v>
       </c>
       <c r="E15">
-        <v>2000000</v>
+        <v>62000000</v>
       </c>
       <c r="F15">
-        <v>3800000</v>
+        <v>33000000</v>
       </c>
       <c r="G15">
         <v>600000</v>
@@ -2208,23 +2319,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>691000000</v>
+        <v>1857000000</v>
       </c>
       <c r="C16">
-        <v>627000000</v>
+        <v>1756000000</v>
       </c>
       <c r="D16">
-        <v>624000000</v>
+        <v>1765000000</v>
       </c>
       <c r="E16">
-        <v>629000000</v>
+        <v>1836000000</v>
       </c>
       <c r="F16">
-        <v>556900000</v>
+        <v>1831000000</v>
       </c>
       <c r="G16">
         <v>597500000</v>
@@ -2330,8 +2441,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>3328000000</v>
@@ -2346,7 +2457,7 @@
         <v>2910000000</v>
       </c>
       <c r="F17">
-        <v>2811600000</v>
+        <v>2812000000</v>
       </c>
       <c r="G17">
         <v>2844700000</v>
@@ -2452,23 +2563,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>3824000000</v>
+        <v>4122000000</v>
       </c>
       <c r="C18">
-        <v>3987000000</v>
+        <v>4258000000</v>
       </c>
       <c r="D18">
-        <v>4225000000</v>
+        <v>4486000000</v>
       </c>
       <c r="E18">
-        <v>4056000000</v>
+        <v>4314000000</v>
       </c>
       <c r="F18">
-        <v>4067200000</v>
+        <v>4413000000</v>
       </c>
       <c r="G18">
         <v>4079600000</v>
@@ -2574,8 +2685,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>79000000</v>
@@ -2615,8 +2726,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>63000000</v>
@@ -2737,8 +2848,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>287000000</v>
@@ -2753,7 +2864,7 @@
         <v>288000000</v>
       </c>
       <c r="F21">
-        <v>184700000</v>
+        <v>185000000</v>
       </c>
       <c r="G21">
         <v>194100000</v>
@@ -2859,23 +2970,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>835000000</v>
+        <v>521000000</v>
       </c>
       <c r="C22">
-        <v>852000000</v>
+        <v>560000000</v>
       </c>
       <c r="D22">
-        <v>869000000</v>
+        <v>594000000</v>
       </c>
       <c r="E22">
-        <v>884000000</v>
+        <v>615000000</v>
       </c>
       <c r="F22">
-        <v>993000000</v>
+        <v>669000000</v>
       </c>
       <c r="G22">
         <v>958100000</v>
@@ -2981,8 +3092,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>5009000000</v>
@@ -3103,8 +3214,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>8337000000</v>
@@ -3119,7 +3230,7 @@
         <v>8215000000</v>
       </c>
       <c r="F24">
-        <v>8160700000</v>
+        <v>8161000000</v>
       </c>
       <c r="G24">
         <v>8184600000</v>
@@ -3225,8 +3336,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>7937000000</v>
@@ -3347,8 +3458,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>2000000</v>
@@ -3469,8 +3580,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>4447000000</v>
@@ -3485,7 +3596,7 @@
         <v>4055000000</v>
       </c>
       <c r="F27">
-        <v>3887800000</v>
+        <v>3888000000</v>
       </c>
       <c r="G27">
         <v>3780100000</v>
@@ -3591,8 +3702,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>1697000000</v>
@@ -3713,23 +3824,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>9925000000</v>
+        <v>9881000000</v>
       </c>
       <c r="C29">
-        <v>9947000000</v>
+        <v>9905000000</v>
       </c>
       <c r="D29">
-        <v>10088000000</v>
+        <v>10049000000</v>
       </c>
       <c r="E29">
-        <v>10239000000</v>
+        <v>10201000000</v>
       </c>
       <c r="F29">
-        <v>10191200000</v>
+        <v>10157000000</v>
       </c>
       <c r="G29">
         <v>10327800000</v>
@@ -3835,23 +3946,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>9925000000</v>
+        <v>9881000000</v>
       </c>
       <c r="C30">
-        <v>9947000000</v>
+        <v>9905000000</v>
       </c>
       <c r="D30">
-        <v>10088000000</v>
+        <v>10049000000</v>
       </c>
       <c r="E30">
-        <v>10239000000</v>
+        <v>10201000000</v>
       </c>
       <c r="F30">
-        <v>10191200000</v>
+        <v>10157000000</v>
       </c>
       <c r="G30">
         <v>10327800000</v>
@@ -3957,8 +4068,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>18262000000</v>
@@ -4079,8 +4190,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>181900000</v>
@@ -4201,8 +4312,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>-1846000000</v>
@@ -4323,23 +4434,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>3561000000</v>
+        <v>3873000000</v>
       </c>
       <c r="C34">
-        <v>3712000000</v>
+        <v>4013000000</v>
       </c>
       <c r="D34">
-        <v>3751000000</v>
+        <v>4055000000</v>
       </c>
       <c r="E34">
-        <v>3585000000</v>
+        <v>3903000000</v>
       </c>
       <c r="F34">
-        <v>3614600000</v>
+        <v>3990000000</v>
       </c>
       <c r="G34">
         <v>3626700000</v>
@@ -4445,23 +4556,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>4075000000</v>
+        <v>4387000000</v>
       </c>
       <c r="C35">
-        <v>4213000000</v>
+        <v>4514000000</v>
       </c>
       <c r="D35">
-        <v>4239000000</v>
+        <v>4543000000</v>
       </c>
       <c r="E35">
-        <v>4058000000</v>
+        <v>4376000000</v>
       </c>
       <c r="F35">
-        <v>4071000000</v>
+        <v>4446000000</v>
       </c>
       <c r="G35">
         <v>4080200000</v>
